--- a/Inventory Update/SKU_PRICE.xlsx
+++ b/Inventory Update/SKU_PRICE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad Pajuhaan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A18822-3A17-4EFF-8523-43BFB91476DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9345AA1F-1985-4320-9F72-3DE7172119ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,11 +1259,15 @@
           <a:br>
             <a:rPr lang="en-US" sz="1800"/>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>Remove un usedf coloumns!</a:t>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>Remove this box!</a:t>
           </a:r>
         </a:p>
@@ -1574,7 +1578,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
